--- a/bsp/stm32/stm32f407-jud-handheld/cmd_manual.xlsx
+++ b/bsp/stm32/stm32f407-jud-handheld/cmd_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="10470" tabRatio="820"/>
+    <workbookView windowWidth="24975" windowHeight="10470" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="命令" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>命令</t>
   </si>
@@ -108,6 +108,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[COM_MODE=</t>
     </r>
     <r>
@@ -134,6 +141,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>读取当前通道模式</t>
     </r>
     <r>
@@ -167,6 +181,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设置当前</t>
     </r>
     <r>
@@ -341,32 +362,6 @@
 10=500HZ
 11=600HZ
 12=1000HZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[ADC_FREQ=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采样率索引</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
     </r>
   </si>
   <si>
@@ -387,17 +382,42 @@
 12=1000HZ</t>
   </si>
   <si>
+    <t>[ADC_TEMP]</t>
+  </si>
+  <si>
+    <r>
+      <t>[ADC_TEMP=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>温度值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>读取当前ADC传感器温度值，单位：摄氏度</t>
+  </si>
+  <si>
     <t>[BME280_TEMP]</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>[BME280_TEMP=</t>
     </r>
     <r>
@@ -587,15 +607,134 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -609,37 +748,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,98 +765,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,132 +794,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -919,36 +969,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,21 +993,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,6 +1047,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1064,13 +1080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,10 +1100,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,143 +1112,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1236,9 +1256,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1597,10 +1614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:D17"/>
+  <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1650,18 +1667,18 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="54" spans="2:4">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1710,69 +1727,80 @@
       </c>
     </row>
     <row r="12" ht="202.5" spans="2:4">
-      <c r="B12" s="6" t="s">
-        <v>23</v>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/bsp/stm32/stm32f407-jud-handheld/cmd_manual.xlsx
+++ b/bsp/stm32/stm32f407-jud-handheld/cmd_manual.xlsx
@@ -298,13 +298,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">读取当前ADC采样率(索引值，ADC启动和停止状态都可以读取)
 </t>
     </r>
@@ -349,43 +342,50 @@
         <scheme val="minor"/>
       </rPr>
       <t>对应关系为：
-0=10HZ
-1=20HZ
-2=22.5HZ
-3=45HZ
-4=87.5HZ
-5=90HZ
-6=165HZ
-7=175HZ
-8=300HZ
-9=330HZ
-10=500HZ
-11=600HZ
-12=1000HZ</t>
+0=20HZ
+1=40HZ
+2=45HZ
+3=90HZ
+4=175HZ
+5=180HZ
+6=330HZ
+7=350HZ
+8=600HZ
+9=660HZ
+10=1000HZ
+11=1200HZ
+12=2000HZ</t>
     </r>
   </si>
   <si>
     <t>设置当前ADC采样率(索引值，ADC启动和停止状态都可以设置)
 采样率索引和采样率对应关系为：
-0=10HZ
-1=20HZ
-2=22.5HZ
-3=45HZ
-4=87.5HZ
-5=90HZ
-6=165HZ
-7=175HZ
-8=300HZ
-9=330HZ
-10=500HZ
-11=600HZ
-12=1000HZ</t>
+0=20HZ
+1=40HZ
+2=45HZ
+3=90HZ
+4=175HZ
+5=180HZ
+6=330HZ
+7=350HZ
+8=600HZ
+9=660HZ
+10=1000HZ
+11=1200HZ
+12=2000HZ</t>
   </si>
   <si>
     <t>[ADC_TEMP]</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[ADC_TEMP=</t>
     </r>
     <r>
@@ -418,6 +418,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[BME280_TEMP=</t>
     </r>
     <r>
@@ -628,6 +635,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -636,6 +651,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -644,24 +747,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,102 +778,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +801,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -806,163 +927,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,8 +1022,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,8 +1061,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,15 +1074,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,17 +1093,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,10 +1107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,139 +1119,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,7 +1624,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
